--- a/PROYECTO BUZON/Matriz_Roles_Homologados_Buzon_Electronico_2.0.xlsx
+++ b/PROYECTO BUZON/Matriz_Roles_Homologados_Buzon_Electronico_2.0.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2614f1410f22f1e2/Documentos/ED_BID/Buzon_2.0/Roles Homologados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO BUZON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{4C9A7C5A-D473-446F-A87A-30235C4B1C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71E84DC9-0DF6-4303-8AE5-BE7829479E85}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44EBCF6-58C6-4963-A02C-000888287C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9B3DE132-1349-4A48-A356-82DD591EE6DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B3DE132-1349-4A48-A356-82DD591EE6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="7" r:id="rId1"/>
     <sheet name="Tabla_Permisos" sheetId="10" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resumen!$A$1:$L$38</definedName>
@@ -34,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
   <si>
     <t>NRO</t>
   </si>
@@ -299,6 +298,63 @@
   </si>
   <si>
     <t>["otros" ,"entities"]</t>
+  </si>
+  <si>
+    <t>rol.usuario</t>
+  </si>
+  <si>
+    <t>usuario_sol</t>
+  </si>
+  <si>
+    <t>tipo_documento</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>propietario.</t>
+  </si>
+  <si>
+    <t>entidad_id</t>
+  </si>
+  <si>
+    <t>empresa_id</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>envio</t>
+  </si>
+  <si>
+    <t>emisor.</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>usuario_tipo_id</t>
+  </si>
+  <si>
+    <t>usuario_id</t>
+  </si>
+  <si>
+    <t>numero_documento</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>documento_tipo</t>
+  </si>
+  <si>
+    <t>SDELGADO</t>
+  </si>
+  <si>
+    <t>DELGADO DAVILA STEPHANIA</t>
   </si>
 </sst>
 </file>
@@ -374,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +455,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -617,11 +685,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -699,11 +822,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,8 +874,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>167560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -757,7 +894,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -802,8 +939,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142170</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -822,7 +959,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -867,8 +1004,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>139650</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Ink 7">
@@ -887,7 +1024,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Ink 7">
@@ -932,8 +1069,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>109770</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -952,7 +1089,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -1077,7 +1214,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">86 1 96 0 0,'-17'8'0'0'0,"6"-1"0"0"0,3-1 0 0 0,2 0 0 0 0,1 3 0 0 0,-1-1 0 0 0,5-4 0 0 0,7-6 0 0 0,4-8 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="818.84">61 54 96 0 0,'0'0'0'0'0,"-22"7"0"0"0,14-2 0 0 0,-4 0 0 0 0,7-4 0 0 0,-2 3 0 0 0,1-6 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="818.83">61 54 96 0 0,'0'0'0'0'0,"-22"7"0"0"0,14-2 0 0 0,-4 0 0 0 0,7-4 0 0 0,-2 3 0 0 0,1-6 0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1114,9 +1251,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1154,7 +1291,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1260,7 +1397,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1402,7 +1539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1410,33 +1547,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435D5271-063A-42D9-AAA7-6BC3982064F1}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1519,7 +1656,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1564,7 +1701,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1574,7 +1711,7 @@
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1609,7 +1746,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1654,7 +1791,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1699,7 +1836,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1744,7 +1881,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1789,7 +1926,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1834,7 +1971,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1879,7 +2016,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1924,7 +2061,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1969,7 +2106,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2014,7 +2151,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2059,7 +2196,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2104,7 +2241,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2149,7 +2286,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2194,7 +2331,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2239,7 +2376,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2284,7 +2421,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2329,7 +2466,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2374,7 +2511,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2419,7 +2556,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2464,7 +2601,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2509,7 +2646,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2554,7 +2691,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2599,7 +2736,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2644,7 +2781,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2689,7 +2826,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2734,7 +2871,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2779,7 +2916,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2824,7 +2961,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2869,7 +3006,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2914,7 +3051,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2959,7 +3096,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3004,7 +3141,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3049,7 +3186,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3094,7 +3231,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3140,7 +3277,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L38" xr:uid="{435D5271-063A-42D9-AAA7-6BC3982064F1}"/>
+  <autoFilter ref="A1:L38" xr:uid="{435D5271-063A-42D9-AAA7-6BC3982064F1}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="MR, GEE, GL, ZEE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3153,25 +3296,25 @@
   </sheetPr>
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3193,8 +3336,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="30"/>
+    <row r="3" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
       <c r="C3" s="20" t="s">
         <v>68</v>
       </c>
@@ -3214,7 +3357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>14</v>
       </c>
@@ -3237,7 +3380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +3403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>20</v>
       </c>
@@ -3283,7 +3426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>22</v>
       </c>
@@ -3306,7 +3449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>25</v>
       </c>
@@ -3329,7 +3472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>60</v>
       </c>
@@ -3359,6 +3502,213 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CF7860-110E-4B0C-A97D-42D53A54FF3B}">
+  <dimension ref="B3:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="F4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="F5" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="F6" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="29">
+        <v>20509142590</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="29">
+        <v>488618</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3657,6 +4007,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="083ff26b-a94d-4eb9-b747-c9bdf82d91d1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3670,5 +4022,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB719E8-70D5-4F0B-8990-B35769DEF10C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB719E8-70D5-4F0B-8990-B35769DEF10C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PROYECTO BUZON/Matriz_Roles_Homologados_Buzon_Electronico_2.0.xlsx
+++ b/PROYECTO BUZON/Matriz_Roles_Homologados_Buzon_Electronico_2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO BUZON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44EBCF6-58C6-4963-A02C-000888287C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821D597A-5CEA-4876-9F68-C53111B30E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B3DE132-1349-4A48-A356-82DD591EE6DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9B3DE132-1349-4A48-A356-82DD591EE6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="104">
   <si>
     <t>NRO</t>
   </si>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>DELGADO DAVILA STEPHANIA</t>
+  </si>
+  <si>
+    <t>359639, 38681</t>
+  </si>
+  <si>
+    <t>usuarioregid</t>
+  </si>
+  <si>
+    <t>Cant en 1 mes</t>
+  </si>
+  <si>
+    <t>446803, 457411</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,8 +479,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -740,11 +758,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -827,6 +854,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,9 +869,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,11 +1581,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,9 +1602,10 @@
     <col min="10" max="10" width="17.7109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="19.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1610,8 +1642,14 @@
       <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M1" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1621,10 +1659,10 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="18" t="str">
@@ -1655,8 +1693,11 @@
         <f t="shared" ref="L2:L38" si="6">VLOOKUP(D2,tablaroll,7,0)</f>
         <v>true</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1666,7 +1707,7 @@
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1701,7 +1742,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1711,10 +1752,10 @@
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="18" t="str">
@@ -1745,8 +1786,11 @@
         <f t="shared" si="6"/>
         <v>false</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>441740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1756,10 +1800,10 @@
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="18" t="str">
@@ -1790,8 +1834,11 @@
         <f t="shared" si="6"/>
         <v>false</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1836,7 +1883,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1881,7 +1928,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1926,7 +1973,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1971,7 +2018,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2016,7 +2063,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2061,7 +2108,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2106,7 +2153,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2151,7 +2198,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2196,7 +2243,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2241,7 +2288,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3314,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3337,7 +3384,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="20" t="s">
         <v>68</v>
       </c>
@@ -3509,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CF7860-110E-4B0C-A97D-42D53A54FF3B}">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,14 +3571,14 @@
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="F4" s="36" t="s">
+      <c r="C4" s="38"/>
+      <c r="F4" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">

--- a/PROYECTO BUZON/Matriz_Roles_Homologados_Buzon_Electronico_2.0.xlsx
+++ b/PROYECTO BUZON/Matriz_Roles_Homologados_Buzon_Electronico_2.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO BUZON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821D597A-5CEA-4876-9F68-C53111B30E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9B3DE132-1349-4A48-A356-82DD591EE6DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="7" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="TABLAROL">#REF!</definedName>
     <definedName name="tablaroll">Tabla_Permisos!$B$4:$H$9</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -372,7 +371,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -857,6 +856,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,10 +872,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,7 +1244,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">86 1 96 0 0,'-17'8'0'0'0,"6"-1"0"0"0,3-1 0 0 0,2 0 0 0 0,1 3 0 0 0,-1-1 0 0 0,5-4 0 0 0,7-6 0 0 0,4-8 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="818.83">61 54 96 0 0,'0'0'0'0'0,"-22"7"0"0"0,14-2 0 0 0,-4 0 0 0 0,7-4 0 0 0,-2 3 0 0 0,1-6 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="818.8299">61 54 96 0 0,'0'0'0'0'0,"-22"7"0"0"0,14-2 0 0 0,-4 0 0 0 0,7-4 0 0 0,-2 3 0 0 0,1-6 0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1577,15 +1576,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435D5271-063A-42D9-AAA7-6BC3982064F1}">
-  <sheetPr filterMode="1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,10 +1658,10 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="18" t="str">
@@ -1707,7 +1706,7 @@
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1752,10 +1751,10 @@
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="18" t="str">
@@ -1800,10 +1799,10 @@
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="18" t="str">
@@ -1883,7 +1882,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2558,7 +2557,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2873,7 +2872,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3324,20 +3323,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L38" xr:uid="{435D5271-063A-42D9-AAA7-6BC3982064F1}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="MR, GEE, GL, ZEE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L38"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96811910-83F0-431D-AA4E-0CD90BC78D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3361,7 +3354,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3384,7 +3377,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="20" t="s">
         <v>68</v>
       </c>
@@ -3553,10 +3546,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CF7860-110E-4B0C-A97D-42D53A54FF3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -3571,14 +3564,14 @@
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="F4" s="37" t="s">
+      <c r="C4" s="40"/>
+      <c r="F4" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
@@ -3760,6 +3753,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
@@ -3769,15 +3771,6 @@
     <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4042,6 +4035,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44C61F9-6B85-441E-8DC1-8E8258A8EC12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6942CE-DD64-45DA-B893-80E5073BBBE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -4056,14 +4057,6 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
     <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44C61F9-6B85-441E-8DC1-8E8258A8EC12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
